--- a/Code/Results/Cases/Case_8_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.03990525918094</v>
+        <v>24.09988974696458</v>
       </c>
       <c r="C2">
-        <v>17.28802789510833</v>
+        <v>18.75638460849279</v>
       </c>
       <c r="D2">
-        <v>5.742941407136839</v>
+        <v>4.701150847220415</v>
       </c>
       <c r="E2">
-        <v>6.653410004585172</v>
+        <v>6.914527579880867</v>
       </c>
       <c r="F2">
-        <v>40.57960832056823</v>
+        <v>33.9662387551928</v>
       </c>
       <c r="G2">
-        <v>2.101295284535344</v>
+        <v>3.478413674050249</v>
       </c>
       <c r="H2">
-        <v>2.129321488212355</v>
+        <v>1.8368138960274</v>
       </c>
       <c r="I2">
-        <v>3.036069158461029</v>
+        <v>2.718026094341423</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>27.75836668823294</v>
+        <v>22.35950622291259</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>18.1522448377681</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.22642900679968</v>
       </c>
       <c r="N2">
-        <v>8.22403518109487</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.4408619311469</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47876025506618</v>
+        <v>22.49238713657194</v>
       </c>
       <c r="C3">
-        <v>16.08810495711243</v>
+        <v>17.49406576651579</v>
       </c>
       <c r="D3">
-        <v>5.673926668455976</v>
+        <v>4.667792655721716</v>
       </c>
       <c r="E3">
-        <v>6.353017291823675</v>
+        <v>6.738762888566299</v>
       </c>
       <c r="F3">
-        <v>38.62652533666211</v>
+        <v>32.51716925760922</v>
       </c>
       <c r="G3">
-        <v>2.109164586153307</v>
+        <v>4.380462492537077</v>
       </c>
       <c r="H3">
-        <v>2.457989893449263</v>
+        <v>2.093163847314714</v>
       </c>
       <c r="I3">
-        <v>3.332481779056769</v>
+        <v>2.934880779485148</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>26.78650602378202</v>
+        <v>21.84149258173863</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>17.93693367481066</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.64950312024561</v>
       </c>
       <c r="N3">
-        <v>7.827869126968016</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.062244901109386</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.46790084140727</v>
+        <v>21.44534405760493</v>
       </c>
       <c r="C4">
-        <v>15.31541060939152</v>
+        <v>16.67809024605842</v>
       </c>
       <c r="D4">
-        <v>5.628702983439807</v>
+        <v>4.644775838356565</v>
       </c>
       <c r="E4">
-        <v>6.163542292610801</v>
+        <v>6.627863496879654</v>
       </c>
       <c r="F4">
-        <v>37.38274601450271</v>
+        <v>31.59085896099049</v>
       </c>
       <c r="G4">
-        <v>2.114130645519487</v>
+        <v>4.951295350582918</v>
       </c>
       <c r="H4">
-        <v>2.665674856726931</v>
+        <v>2.255608071766109</v>
       </c>
       <c r="I4">
-        <v>3.520323027649506</v>
+        <v>3.073135926139292</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.17074290173317</v>
+        <v>21.51151669859002</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>17.79157554744294</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.29933554796479</v>
       </c>
       <c r="N4">
-        <v>7.575163909887976</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.821078384777453</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.042936272957</v>
+        <v>21.00548357668354</v>
       </c>
       <c r="C5">
-        <v>14.99918790014402</v>
+        <v>16.34174749942186</v>
       </c>
       <c r="D5">
-        <v>5.604584888512125</v>
+        <v>4.632262584992294</v>
       </c>
       <c r="E5">
-        <v>6.083562312265779</v>
+        <v>6.581065634253151</v>
       </c>
       <c r="F5">
-        <v>36.82855308056052</v>
+        <v>31.17485626984655</v>
       </c>
       <c r="G5">
-        <v>2.116205135930372</v>
+        <v>5.189940338527074</v>
       </c>
       <c r="H5">
-        <v>2.752475869926653</v>
+        <v>2.323572398131045</v>
       </c>
       <c r="I5">
-        <v>3.601323919305691</v>
+        <v>3.134169646274167</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.88659156467037</v>
+        <v>21.35220493055739</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>17.71167392367255</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.14222116428282</v>
       </c>
       <c r="N5">
-        <v>7.470185774611299</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.720947923749814</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.97169031481374</v>
+        <v>20.93280075019389</v>
       </c>
       <c r="C6">
-        <v>14.9556558670435</v>
+        <v>16.29321565129571</v>
       </c>
       <c r="D6">
-        <v>5.59446967052736</v>
+        <v>4.627117727985984</v>
       </c>
       <c r="E6">
-        <v>6.068433665705008</v>
+        <v>6.57223698210572</v>
       </c>
       <c r="F6">
-        <v>36.69112614229106</v>
+        <v>31.06902006184129</v>
       </c>
       <c r="G6">
-        <v>2.116570968763182</v>
+        <v>5.231846699666836</v>
       </c>
       <c r="H6">
-        <v>2.767762911658274</v>
+        <v>2.335510459607854</v>
       </c>
       <c r="I6">
-        <v>3.618628605885982</v>
+        <v>3.148752638859525</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.80410083399834</v>
+        <v>21.29879603109709</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>17.67704090423427</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.09684988458014</v>
       </c>
       <c r="N6">
-        <v>7.45301049421811</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.704508300877901</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.46246865707332</v>
+        <v>21.43779111943578</v>
       </c>
       <c r="C7">
-        <v>15.33651548045573</v>
+        <v>16.64184764794314</v>
       </c>
       <c r="D7">
-        <v>5.611860381186395</v>
+        <v>4.622510908696559</v>
       </c>
       <c r="E7">
-        <v>6.157701391652853</v>
+        <v>6.623640984464628</v>
       </c>
       <c r="F7">
-        <v>37.25502496670352</v>
+        <v>31.31074584278439</v>
       </c>
       <c r="G7">
-        <v>2.114210541631238</v>
+        <v>5.02105064802416</v>
       </c>
       <c r="H7">
-        <v>2.668949529265523</v>
+        <v>2.260927507433634</v>
       </c>
       <c r="I7">
-        <v>3.531470825993325</v>
+        <v>3.088594251823102</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.07227830817521</v>
+        <v>21.32759880397202</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>17.6478474754974</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.16444708171202</v>
       </c>
       <c r="N7">
-        <v>7.574818590335086</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.81572065211187</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51258964220945</v>
+        <v>23.55377999465208</v>
       </c>
       <c r="C8">
-        <v>16.91231807333623</v>
+        <v>18.19240174981327</v>
       </c>
       <c r="D8">
-        <v>5.69820312731528</v>
+        <v>4.637695153393119</v>
       </c>
       <c r="E8">
-        <v>6.544794957383844</v>
+        <v>6.84827609052631</v>
       </c>
       <c r="F8">
-        <v>39.7653756662408</v>
+        <v>32.79731197178407</v>
       </c>
       <c r="G8">
-        <v>2.104048629531952</v>
+        <v>4.141639339450208</v>
       </c>
       <c r="H8">
-        <v>2.244160773156991</v>
+        <v>1.935293775297657</v>
       </c>
       <c r="I8">
-        <v>3.150350569701128</v>
+        <v>2.816632962571072</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>27.30701475984981</v>
+        <v>21.7421980622072</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17.74291854663437</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.69549903201922</v>
       </c>
       <c r="N8">
-        <v>8.090762166701069</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.29796208964207</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.18114139920357</v>
+        <v>27.23531678098346</v>
       </c>
       <c r="C9">
-        <v>19.6825253728815</v>
+        <v>21.07045882657332</v>
       </c>
       <c r="D9">
-        <v>5.873763899313666</v>
+        <v>4.708806616596775</v>
       </c>
       <c r="E9">
-        <v>7.274653237256969</v>
+        <v>7.273503567687232</v>
       </c>
       <c r="F9">
-        <v>44.51690195831588</v>
+        <v>36.22471829043368</v>
       </c>
       <c r="G9">
-        <v>2.085035435816181</v>
+        <v>2.316219347007578</v>
       </c>
       <c r="H9">
-        <v>1.666680720175202</v>
+        <v>1.792755846084696</v>
       </c>
       <c r="I9">
-        <v>2.525448757677948</v>
+        <v>2.666356799621167</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>29.72939468143481</v>
+        <v>22.98167071487984</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>18.23211512386574</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.14305357509244</v>
       </c>
       <c r="N9">
-        <v>9.023845922718966</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.188178105752291</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.65025168489099</v>
+        <v>29.64738524152028</v>
       </c>
       <c r="C10">
-        <v>21.6116306278904</v>
+        <v>22.79004673316446</v>
       </c>
       <c r="D10">
-        <v>5.905958195770182</v>
+        <v>4.667712235887469</v>
       </c>
       <c r="E10">
-        <v>7.737885358027293</v>
+        <v>7.537617185644871</v>
       </c>
       <c r="F10">
-        <v>47.23880799577644</v>
+        <v>37.32162619390705</v>
       </c>
       <c r="G10">
-        <v>2.071900355350392</v>
+        <v>3.841914500732847</v>
       </c>
       <c r="H10">
-        <v>2.195181258750381</v>
+        <v>2.184003769143712</v>
       </c>
       <c r="I10">
-        <v>3.004478328251502</v>
+        <v>3.0005545726802</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>30.97731488197737</v>
+        <v>22.984414674306</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.91300333068336</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.53932047724145</v>
       </c>
       <c r="N10">
-        <v>9.520299169915672</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.63055236794356</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.6728155930444</v>
+        <v>30.64797409169828</v>
       </c>
       <c r="C11">
-        <v>22.89356192073826</v>
+        <v>23.39823223902536</v>
       </c>
       <c r="D11">
-        <v>5.315030855250756</v>
+        <v>4.56367716815058</v>
       </c>
       <c r="E11">
-        <v>7.756540881332683</v>
+        <v>7.59112088892523</v>
       </c>
       <c r="F11">
-        <v>44.17615601733507</v>
+        <v>33.23804568282645</v>
       </c>
       <c r="G11">
-        <v>2.068426234318295</v>
+        <v>7.795412821987383</v>
       </c>
       <c r="H11">
-        <v>3.053649123569174</v>
+        <v>3.009347092984061</v>
       </c>
       <c r="I11">
-        <v>3.126456813615055</v>
+        <v>3.072557824366827</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>28.10436907050276</v>
+        <v>19.73430389895628</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.44466068459224</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.15173012027581</v>
       </c>
       <c r="N11">
-        <v>8.547365800974719</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.586101993775056</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.0372608684471</v>
+        <v>31.00960434708254</v>
       </c>
       <c r="C12">
-        <v>23.56155883760639</v>
+        <v>23.68353226202559</v>
       </c>
       <c r="D12">
-        <v>4.939955661732786</v>
+        <v>4.694799059487186</v>
       </c>
       <c r="E12">
-        <v>8.034548861398424</v>
+        <v>7.885062887054617</v>
       </c>
       <c r="F12">
-        <v>41.14404637084329</v>
+        <v>30.17230062460283</v>
       </c>
       <c r="G12">
-        <v>2.067934829622725</v>
+        <v>9.672142151167421</v>
       </c>
       <c r="H12">
-        <v>4.268175982827031</v>
+        <v>4.233598694137739</v>
       </c>
       <c r="I12">
-        <v>3.135828019978384</v>
+        <v>3.074868616718238</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.54658484461169</v>
+        <v>17.49411501177108</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.83729140055626</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.40474318519776</v>
       </c>
       <c r="N12">
-        <v>7.647065693862158</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.651907835351802</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.92912716560572</v>
+        <v>30.91422588496497</v>
       </c>
       <c r="C13">
-        <v>23.84826370573919</v>
+        <v>23.87361230759667</v>
       </c>
       <c r="D13">
-        <v>4.708237581357654</v>
+        <v>4.861445380372582</v>
       </c>
       <c r="E13">
-        <v>8.488827787506281</v>
+        <v>8.390830105533546</v>
       </c>
       <c r="F13">
-        <v>37.71388536774221</v>
+        <v>27.85582844391967</v>
       </c>
       <c r="G13">
-        <v>2.069790096016178</v>
+        <v>9.224916877635254</v>
       </c>
       <c r="H13">
-        <v>5.552310261999406</v>
+        <v>5.537441037942997</v>
       </c>
       <c r="I13">
-        <v>3.061334003549883</v>
+        <v>3.030255237340906</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.91616161636392</v>
+        <v>15.95559824508732</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.79818325319385</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.1167419757625</v>
       </c>
       <c r="N13">
-        <v>6.743926429774878</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.749373218509773</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.6390868460632</v>
+        <v>30.63914473754657</v>
       </c>
       <c r="C14">
-        <v>23.88891593420384</v>
+        <v>23.96821422114813</v>
       </c>
       <c r="D14">
-        <v>4.638280145267568</v>
+        <v>4.96333930885516</v>
       </c>
       <c r="E14">
-        <v>8.90883322186613</v>
+        <v>8.872760495393525</v>
       </c>
       <c r="F14">
-        <v>35.06558850576901</v>
+        <v>26.50403450177484</v>
       </c>
       <c r="G14">
-        <v>2.072134838812521</v>
+        <v>7.87926122295441</v>
       </c>
       <c r="H14">
-        <v>6.478552377930269</v>
+        <v>6.47689075397991</v>
       </c>
       <c r="I14">
-        <v>2.973160524861147</v>
+        <v>2.97857056462021</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.02299645813352</v>
+        <v>15.14951317460251</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.28134094397367</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.39453282519659</v>
       </c>
       <c r="N14">
-        <v>6.122854420153253</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.143256177232328</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.46581791975949</v>
+        <v>30.47257109584995</v>
       </c>
       <c r="C15">
-        <v>23.82489331582041</v>
+        <v>23.97033084552381</v>
       </c>
       <c r="D15">
-        <v>4.636177627406628</v>
+        <v>4.969269661201604</v>
       </c>
       <c r="E15">
-        <v>9.004309529986863</v>
+        <v>9.000611463220562</v>
       </c>
       <c r="F15">
-        <v>34.29278845244681</v>
+        <v>26.27222101539741</v>
       </c>
       <c r="G15">
-        <v>2.073252479286467</v>
+        <v>7.106428845510919</v>
       </c>
       <c r="H15">
-        <v>6.687430477275022</v>
+        <v>6.690455026795007</v>
       </c>
       <c r="I15">
-        <v>2.933859049454308</v>
+        <v>2.95634717980061</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.51804199710232</v>
+        <v>15.04177789758926</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.22217924070319</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.27831973377667</v>
       </c>
       <c r="N15">
-        <v>5.967845429492802</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.99795750455997</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.47615855718468</v>
+        <v>29.51133443889788</v>
       </c>
       <c r="C16">
-        <v>23.02182688066494</v>
+        <v>23.62660566239441</v>
       </c>
       <c r="D16">
-        <v>4.666007407515547</v>
+        <v>4.776774430653067</v>
       </c>
       <c r="E16">
-        <v>8.729843332744631</v>
+        <v>8.887321153707878</v>
       </c>
       <c r="F16">
-        <v>33.55055361597587</v>
+        <v>27.3299937837098</v>
       </c>
       <c r="G16">
-        <v>2.078496437269473</v>
+        <v>3.463195624625583</v>
       </c>
       <c r="H16">
-        <v>6.460570604195544</v>
+        <v>6.443616346330439</v>
       </c>
       <c r="I16">
-        <v>2.746986925763096</v>
+        <v>2.842243357351455</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.37993384764644</v>
+        <v>15.94141847566493</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.90637380767233</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.8965383923986</v>
       </c>
       <c r="N16">
-        <v>5.895333952827214</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.978801663262484</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.86106647733542</v>
+        <v>28.90941693015244</v>
       </c>
       <c r="C17">
-        <v>22.36783776998917</v>
+        <v>23.23740208775424</v>
       </c>
       <c r="D17">
-        <v>4.709511784968138</v>
+        <v>4.638294621520129</v>
       </c>
       <c r="E17">
-        <v>8.257355068909298</v>
+        <v>8.485627025753672</v>
       </c>
       <c r="F17">
-        <v>34.44341051191257</v>
+        <v>28.68715265539349</v>
       </c>
       <c r="G17">
-        <v>2.081296834959276</v>
+        <v>2.080946136048854</v>
       </c>
       <c r="H17">
-        <v>5.723558666370838</v>
+        <v>5.694408890321482</v>
       </c>
       <c r="I17">
-        <v>2.650140464747388</v>
+        <v>2.780396308167539</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.28570741306415</v>
+        <v>16.99171692063414</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.68967875160897</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.67431329611874</v>
       </c>
       <c r="N17">
-        <v>6.169484622344014</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.28272883726306</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.51369686706132</v>
+        <v>28.56533147757028</v>
       </c>
       <c r="C18">
-        <v>21.76148851729739</v>
+        <v>22.84482199485912</v>
       </c>
       <c r="D18">
-        <v>4.850979182041662</v>
+        <v>4.540344499662551</v>
       </c>
       <c r="E18">
-        <v>7.686920784466175</v>
+        <v>7.913864507622109</v>
       </c>
       <c r="F18">
-        <v>36.93310722011859</v>
+        <v>30.83102708247561</v>
       </c>
       <c r="G18">
-        <v>2.082150857871931</v>
+        <v>1.623149866604692</v>
       </c>
       <c r="H18">
-        <v>4.452731236402433</v>
+        <v>4.43447395756042</v>
       </c>
       <c r="I18">
-        <v>2.620461073480467</v>
+        <v>2.758202555376819</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.29396964351815</v>
+        <v>18.55211049424404</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.83378541790094</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.87969835846281</v>
       </c>
       <c r="N18">
-        <v>6.816545943705515</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.949465773115601</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.41360539734988</v>
+        <v>28.46053411975869</v>
       </c>
       <c r="C19">
-        <v>21.29029609414891</v>
+        <v>22.55599015904125</v>
       </c>
       <c r="D19">
-        <v>5.153870793610264</v>
+        <v>4.538254188215888</v>
       </c>
       <c r="E19">
-        <v>7.325028937297046</v>
+        <v>7.466102660356475</v>
       </c>
       <c r="F19">
-        <v>40.30656060969173</v>
+        <v>33.4049308579205</v>
       </c>
       <c r="G19">
-        <v>2.081273269623992</v>
+        <v>1.439277062856339</v>
       </c>
       <c r="H19">
-        <v>2.994507761157096</v>
+        <v>3.056719776194149</v>
       </c>
       <c r="I19">
-        <v>2.662248214598705</v>
+        <v>2.786875232884715</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>25.93253265062434</v>
+        <v>20.40955001812272</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.18842024557288</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.33249666002021</v>
       </c>
       <c r="N19">
-        <v>7.756406952255494</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.90179108709102</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.0172363146359</v>
+        <v>29.03469014457839</v>
       </c>
       <c r="C20">
-        <v>21.1774100920479</v>
+        <v>22.55022274153676</v>
       </c>
       <c r="D20">
-        <v>5.847211253259072</v>
+        <v>4.692628299881347</v>
       </c>
       <c r="E20">
-        <v>7.601666782054119</v>
+        <v>7.464212996638402</v>
       </c>
       <c r="F20">
-        <v>46.20800605922265</v>
+        <v>37.29786981442018</v>
       </c>
       <c r="G20">
-        <v>2.075480955198542</v>
+        <v>2.252949478103741</v>
       </c>
       <c r="H20">
-        <v>2.050016613437848</v>
+        <v>2.085541614091526</v>
       </c>
       <c r="I20">
-        <v>2.886253424782641</v>
+        <v>2.934723448484123</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.38281445333171</v>
+        <v>23.11882601601286</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>18.09484504566634</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.53948731808841</v>
       </c>
       <c r="N20">
-        <v>9.38858212945089</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.526912173633265</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.83558260796145</v>
+        <v>30.78389512734015</v>
       </c>
       <c r="C21">
-        <v>22.51731903751126</v>
+        <v>23.0067160228204</v>
       </c>
       <c r="D21">
-        <v>5.994132556423067</v>
+        <v>4.581092563676196</v>
       </c>
       <c r="E21">
-        <v>8.036978050274913</v>
+        <v>7.709354785267449</v>
       </c>
       <c r="F21">
-        <v>49.04362010074795</v>
+        <v>36.04215366787394</v>
       </c>
       <c r="G21">
-        <v>2.065054077026171</v>
+        <v>9.489460555055093</v>
       </c>
       <c r="H21">
-        <v>2.476480833010682</v>
+        <v>2.357293660441967</v>
       </c>
       <c r="I21">
-        <v>3.265556737525225</v>
+        <v>3.151868646911276</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>31.96767705336104</v>
+        <v>21.82276281954854</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>16.9200210124949</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.82823290058647</v>
       </c>
       <c r="N21">
-        <v>9.972746973274953</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.998343227985371</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.9751335948274</v>
+        <v>31.87618865072148</v>
       </c>
       <c r="C22">
-        <v>23.36905346710182</v>
+        <v>23.24804466662372</v>
       </c>
       <c r="D22">
-        <v>6.069388055970775</v>
+        <v>4.568240690470413</v>
       </c>
       <c r="E22">
-        <v>8.297754894403269</v>
+        <v>7.871158679074121</v>
       </c>
       <c r="F22">
-        <v>50.72184311379564</v>
+        <v>34.98518869393932</v>
       </c>
       <c r="G22">
-        <v>2.058387946491265</v>
+        <v>14.58330551567332</v>
       </c>
       <c r="H22">
-        <v>2.74575447893981</v>
+        <v>2.52776597248768</v>
       </c>
       <c r="I22">
-        <v>3.504142813625944</v>
+        <v>3.285139956530695</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>32.88432183363104</v>
+        <v>20.82048799453657</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.06199038165845</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.23324838205989</v>
       </c>
       <c r="N22">
-        <v>10.27181972243688</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.22093695681754</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.37230272795129</v>
+        <v>31.3006194434744</v>
       </c>
       <c r="C23">
-        <v>22.89627819195079</v>
+        <v>23.20362428699071</v>
       </c>
       <c r="D23">
-        <v>6.047557779052656</v>
+        <v>4.575274628342372</v>
       </c>
       <c r="E23">
-        <v>8.16348485654823</v>
+        <v>7.784294161790621</v>
       </c>
       <c r="F23">
-        <v>49.94059714305948</v>
+        <v>36.00072846820068</v>
       </c>
       <c r="G23">
-        <v>2.061884457953468</v>
+        <v>11.07457856929565</v>
       </c>
       <c r="H23">
-        <v>2.604459421891768</v>
+        <v>2.443245299198229</v>
       </c>
       <c r="I23">
-        <v>3.374805125238066</v>
+        <v>3.214604752579251</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.48961743940913</v>
+        <v>21.65989006447686</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.73420064611409</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.79260486929481</v>
       </c>
       <c r="N23">
-        <v>10.11205728961102</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.11177216444477</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.99212591347203</v>
+        <v>29.00874370812761</v>
       </c>
       <c r="C24">
-        <v>21.08228331389263</v>
+        <v>22.48316357088251</v>
       </c>
       <c r="D24">
-        <v>5.931872516711221</v>
+        <v>4.723511508528709</v>
       </c>
       <c r="E24">
-        <v>7.643886106062987</v>
+        <v>7.487859502219393</v>
       </c>
       <c r="F24">
-        <v>46.72363955884839</v>
+        <v>37.71892886251966</v>
       </c>
       <c r="G24">
-        <v>2.075336162596812</v>
+        <v>2.209828184326776</v>
       </c>
       <c r="H24">
-        <v>2.060160707793477</v>
+        <v>2.093785867761542</v>
       </c>
       <c r="I24">
-        <v>2.884450868979082</v>
+        <v>2.928749581716268</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.81262377647148</v>
+        <v>23.44959341574187</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>18.34084727115992</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.7918001252625</v>
       </c>
       <c r="N24">
-        <v>9.490486593252445</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.631034911663045</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.21638916174544</v>
+        <v>26.28983886443986</v>
       </c>
       <c r="C25">
-        <v>18.99961130504676</v>
+        <v>20.42170446578784</v>
       </c>
       <c r="D25">
-        <v>5.800019313190019</v>
+        <v>4.696201237721918</v>
       </c>
       <c r="E25">
-        <v>7.072974981736747</v>
+        <v>7.157546486021871</v>
       </c>
       <c r="F25">
-        <v>43.08311085191231</v>
+        <v>35.39974869381911</v>
       </c>
       <c r="G25">
-        <v>2.090169463843972</v>
+        <v>2.481097946843372</v>
       </c>
       <c r="H25">
-        <v>1.665339084674201</v>
+        <v>1.63615394257423</v>
       </c>
       <c r="I25">
-        <v>2.641231844518965</v>
+        <v>2.544528269024678</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>28.93691497009356</v>
+        <v>22.68084770352795</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>18.12885437724206</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.76957674826926</v>
       </c>
       <c r="N25">
-        <v>8.781550671465295</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.962925985333531</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
